--- a/Exams.xlsx
+++ b/Exams.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -32,16 +32,25 @@
     <t>1</t>
   </si>
   <si>
-    <t>math</t>
+    <t>Science</t>
   </si>
   <si>
-    <t>f_5e964c4992095.pdf</t>
+    <t>scienceexam.pdf</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>2020-04-30</t>
+    <t>21-02-2020</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>f_5ecee5110e2d5.pdf</t>
+  </si>
+  <si>
+    <t>2020-06-03</t>
   </si>
 </sst>
 </file>
@@ -86,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -126,6 +135,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
